--- a/figures/final-figs/tables/table-1.xlsx
+++ b/figures/final-figs/tables/table-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abisesi/Desktop/PhD/Projects/Host-Ecology-and-Host-Range/figures/final-figs/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB5FDB6-6195-8741-835A-EABEA8A93475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ADC781-C87C-A74A-85B7-15160E3A70BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1000" windowWidth="27640" windowHeight="15320" xr2:uid="{814A8036-9CCF-B648-9331-D42096569BF1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Parameter</t>
   </si>
@@ -68,8 +68,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>𝞳</t>
+    <t>R</t>
+  </si>
+  <si>
+    <r>
+      <t>𝜶</t>
     </r>
     <r>
       <rPr>
@@ -79,24 +82,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <r>
-      <t>𝜶</t>
+      <t>j,i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>𝝁</t>
     </r>
     <r>
       <rPr>
@@ -106,12 +97,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>j,i</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>𝝁</t>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>𝛅</t>
     </r>
     <r>
       <rPr>
@@ -126,7 +117,7 @@
   </si>
   <si>
     <r>
-      <t>𝛅</t>
+      <t>𝜻</t>
     </r>
     <r>
       <rPr>
@@ -136,12 +127,98 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t>i,x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mutualistic coefficient, benefit of prey species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">to prey species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>j</t>
+    </r>
+  </si>
+  <si>
+    <t>0 (mutualism) or 0.9 (competition)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Competition coefficient, effect of prey species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>i on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> prey species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>j</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Intrinsic growth rate of prey species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>i</t>
     </r>
   </si>
   <si>
     <r>
-      <t>𝜻</t>
+      <t>𝜸</t>
     </r>
     <r>
       <rPr>
@@ -153,10 +230,102 @@
       </rPr>
       <t>i,x</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>𝜸</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Burst size of phage with range </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">x </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">on prey species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attachment rate of phage with range </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">x </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">on prey species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Intrinsic death rate of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>𝞳</t>
     </r>
     <r>
       <rPr>
@@ -166,183 +335,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>i,x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mutualistic coefficient, benefit of prey species </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">i </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">to prey species </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>j</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Competition coefficient, effect of prey species </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>i on</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> prey species </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>j</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Intrinsic growth rate of prey species </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>i</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Burst size of phage with range </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">x </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">on prey species </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>i</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attachment rate of phage with range </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">x </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">on prey species </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>i</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Intrinsic death rate of species </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>i</t>
-    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>1.0 (mutualism) or 0.0 (competition)</t>
   </si>
   <si>
     <r>
@@ -352,7 +358,7 @@
       <rPr>
         <i/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -364,7 +370,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -388,20 +394,14 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -409,7 +409,7 @@
       <b/>
       <i/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -507,20 +507,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -849,7 +847,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -861,101 +859,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
         <v>0.5</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
         <v>1E-3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
         <v>0.03</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
